--- a/multimodal_emotion_data_196.xlsx
+++ b/multimodal_emotion_data_196.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="312">
   <si>
     <t>ID</t>
   </si>
@@ -248,6 +248,30 @@
     <t>还有这孩子，你说他能帮助你多少，他现在压力那么大。</t>
   </si>
   <si>
+    <t>neutral_011</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\neutral_55.jpeg</t>
+  </si>
+  <si>
+    <t>emotion_data\audio\neutral\Elderly0126S0054W0299.wav</t>
+  </si>
+  <si>
+    <t>去哪儿这个什么高铁呀现在，什么飞机呀，现在都挺方便的。</t>
+  </si>
+  <si>
+    <t>neutral_012</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\sad_1.jpeg</t>
+  </si>
+  <si>
+    <t>emotion_data\audio\neutral\Elderly0106S0114W0112.wav</t>
+  </si>
+  <si>
+    <t>对，所以我就是这样的，身体越来越好了，就先不考虑养老院。</t>
+  </si>
+  <si>
     <t>sad_005</t>
   </si>
   <si>
@@ -260,12 +284,78 @@
     <t>哎呀老是睡眠睡不好，老是好像要做梦的那种感觉，所以白天下午呢我就必须要睡一觉。</t>
   </si>
   <si>
+    <t>neutral_013</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\neutral_85.jpeg</t>
+  </si>
+  <si>
+    <t>emotion_data\audio\neutral\Elderly0034S0061W0166.wav</t>
+  </si>
+  <si>
+    <t>对，这孩子们比咱们小时候那会难多了，咱们那会哪有课外班啊，是吧？</t>
+  </si>
+  <si>
+    <t>neutral_014</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\neutral_35.jpeg</t>
+  </si>
+  <si>
+    <t>emotion_data\audio\neutral\Elderly0104S0051W0284.wav</t>
+  </si>
+  <si>
+    <t>你现在一个养老院，一个高级养老院都得超万，七八千。</t>
+  </si>
+  <si>
+    <t>neutral_015</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\sad_10.jpg</t>
+  </si>
+  <si>
+    <t>emotion_data\audio\neutral\Elderly0126S0054W0280.wav</t>
+  </si>
+  <si>
+    <t>去祖国各地，看看这个大好的河山。</t>
+  </si>
+  <si>
     <t>sad_006</t>
   </si>
   <si>
     <t>emotion_data\picture\sad_6.jpeg</t>
   </si>
   <si>
+    <t>neutral_016</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\neutral_56.jpeg</t>
+  </si>
+  <si>
+    <t>emotion_data\audio\neutral\Elderly0033S0060W0242.wav</t>
+  </si>
+  <si>
+    <t>爱动的话就多动一会儿，不爱动了溜达溜达。</t>
+  </si>
+  <si>
+    <t>emotion_data\audio\neutral\Elderly0026S0034W0002.wav</t>
+  </si>
+  <si>
+    <t>你真猜对了，我前段时间我去旅游去了。</t>
+  </si>
+  <si>
+    <t>neutral_017</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\neutral_72.jpeg</t>
+  </si>
+  <si>
+    <t>emotion_data\audio\neutral\Elderly0126S0054W0193.wav</t>
+  </si>
+  <si>
+    <t>这个平常时间吃完饭，晚上出去遛遛弯儿，额走一走。</t>
+  </si>
+  <si>
     <t>sad_007</t>
   </si>
   <si>
@@ -317,6 +407,15 @@
     <t>你知道怎么了，尤其是我们家孩子特自私。</t>
   </si>
   <si>
+    <t>neutral_018</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\angry_14.jpg</t>
+  </si>
+  <si>
+    <t>neutral_019</t>
+  </si>
+  <si>
     <t>angry_002</t>
   </si>
   <si>
@@ -347,12 +446,24 @@
     <t>然后哎，这个家里的卫生呢就落在我身上，哎呀我烦得很。</t>
   </si>
   <si>
+    <t>neutral_020</t>
+  </si>
+  <si>
     <t>angry_004</t>
   </si>
   <si>
     <t>emotion_data\picture\angry_7.jpg</t>
   </si>
   <si>
+    <t>neutral_021</t>
+  </si>
+  <si>
+    <t>emotion_data\audio\neutral\Elderly0126S0053W0181.wav</t>
+  </si>
+  <si>
+    <t>嗯，不像现在都得用自己花这钱花那钱，都单位给花钱。</t>
+  </si>
+  <si>
     <t>angry_005</t>
   </si>
   <si>
@@ -374,6 +485,132 @@
     <t>一张嘴啊，这也不好，那也不好，这也不像话，那不行，一度牢骚。</t>
   </si>
   <si>
+    <t>neutral_022</t>
+  </si>
+  <si>
+    <t>emotion_data\audio\neutral\Elderly0106S0114W0032.wav</t>
+  </si>
+  <si>
+    <t>嗯，先把这些资金嘛，能节约下来呀，给儿女留点儿吧。</t>
+  </si>
+  <si>
+    <t>angry_007</t>
+  </si>
+  <si>
+    <t>neutral_023</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\angry_10.jpg</t>
+  </si>
+  <si>
+    <t>neutral_024</t>
+  </si>
+  <si>
+    <t>neutral_025</t>
+  </si>
+  <si>
+    <t>emotion_data\audio\neutral\Elderly0101S0003W0006.wav</t>
+  </si>
+  <si>
+    <t>十点半嘛也不算迟，主要嘛也学校里有种上课啊，什么外面的课尽量少上，太辛苦了孩子。</t>
+  </si>
+  <si>
+    <t>neutral_026</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\angry_20.jpg</t>
+  </si>
+  <si>
+    <t>emotion_data\audio\neutral\Elderly0039S0116W0123.wav</t>
+  </si>
+  <si>
+    <t>遛下弯儿以后呢然后就去买菜，买菜回来就吃饭，吃了饭休息一个多小时一个一个多小时或者两个小时。</t>
+  </si>
+  <si>
+    <t>neutral_027</t>
+  </si>
+  <si>
+    <t>angry_008</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\sad_24.jpg</t>
+  </si>
+  <si>
+    <t>emotion_data\audio\angry\Elderly0029S0043W0021.wav</t>
+  </si>
+  <si>
+    <t>你指望孩子呀，现在现在孩子真指望不上，现在这孩子。</t>
+  </si>
+  <si>
+    <t>neutral_028</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\angry_18.jpg</t>
+  </si>
+  <si>
+    <t>emotion_data\audio\neutral\Elderly0104S0052W0423.wav</t>
+  </si>
+  <si>
+    <t>这孩子呀什么孝顺不孝顺的搁一边，只要他别给捅大娄子去。</t>
+  </si>
+  <si>
+    <t>angry_009</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\neutral_37.jpeg</t>
+  </si>
+  <si>
+    <t>angry_010</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\sad_2.jpeg</t>
+  </si>
+  <si>
+    <t>emotion_data\audio\angry\Elderly0011S0005W0150.wav</t>
+  </si>
+  <si>
+    <t>市场也没有人气儿，也也不是好现象，真的这人都是。</t>
+  </si>
+  <si>
+    <t>neutral_029</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\neutral_83.jpeg</t>
+  </si>
+  <si>
+    <t>neutral_030</t>
+  </si>
+  <si>
+    <t>emotion_data\audio\neutral\Elderly0036S0105W0006.wav</t>
+  </si>
+  <si>
+    <t>我的孙儿不是考上了大学嘛，去年都走了。</t>
+  </si>
+  <si>
+    <t>angry_011</t>
+  </si>
+  <si>
+    <t>neutral_031</t>
+  </si>
+  <si>
+    <t>emotion_data\audio\neutral\Elderly0026S0034W0019.wav</t>
+  </si>
+  <si>
+    <t>那边海边说实话，真的适合我们这些老年人。</t>
+  </si>
+  <si>
+    <t>emotion_data\audio\neutral\Elderly0122S0001W0031.wav</t>
+  </si>
+  <si>
+    <t>哎要注意健康，上了岁数了跟年轻不一样了。</t>
+  </si>
+  <si>
+    <t>sad_009</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\neutral_42.jpeg</t>
+  </si>
+  <si>
     <t>happy_001</t>
   </si>
   <si>
@@ -395,6 +632,30 @@
     <t>和谐，显得特别的，就跟那个在这一个胡同里一个院里，就跟一家人似的。</t>
   </si>
   <si>
+    <t>sad_010</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\sad_13.jpg</t>
+  </si>
+  <si>
+    <t>emotion_data\audio\sad\Elderly0036S0105W0018.wav</t>
+  </si>
+  <si>
+    <t>觉得他一上大学了，我心的很空虚。</t>
+  </si>
+  <si>
+    <t>sad_011</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\happy_11.jpg</t>
+  </si>
+  <si>
+    <t>sad_012</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\neutral_54.jpeg</t>
+  </si>
+  <si>
     <t>happy_002</t>
   </si>
   <si>
@@ -419,6 +680,18 @@
     <t>我这个心情就特别的放松。</t>
   </si>
   <si>
+    <t>sad_013</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\sad_9.jpg</t>
+  </si>
+  <si>
+    <t>emotion_data\audio\sad\Elderly0039S0115W0094.wav</t>
+  </si>
+  <si>
+    <t>想想那个时候刚结婚的时候，还是感觉挺苦挺累的。</t>
+  </si>
+  <si>
     <t>happy_003</t>
   </si>
   <si>
@@ -429,6 +702,267 @@
   </si>
   <si>
     <t>带小孩儿大爷搞一些娱乐，反正是留下美好的记忆吧，哦。</t>
+  </si>
+  <si>
+    <t>sad_014</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\neutral_82.jpeg</t>
+  </si>
+  <si>
+    <t>happy_004</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\neutral_36.jpeg</t>
+  </si>
+  <si>
+    <t>happy_005</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\happy_14.jpg</t>
+  </si>
+  <si>
+    <t>emotion_data\audio\happy\Elderly0125S0049W0251.wav</t>
+  </si>
+  <si>
+    <t>保持气其实保持良好的心态，不生气哦，每天快快乐乐。</t>
+  </si>
+  <si>
+    <t>sad_015</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\happy_30.jpg</t>
+  </si>
+  <si>
+    <t>sad_016</t>
+  </si>
+  <si>
+    <t>happy_006</t>
+  </si>
+  <si>
+    <t>emotion_data\audio\happy\Elderly0122S0001W0003.wav</t>
+  </si>
+  <si>
+    <t>找个有趣的地方玩一玩。</t>
+  </si>
+  <si>
+    <t>sad_017</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\happy_21.jpeg</t>
+  </si>
+  <si>
+    <t>emotion_data\audio\sad\Elderly0036S0105W0163.wav</t>
+  </si>
+  <si>
+    <t>那一次我特别特别的伤心，跟子女打电话也在流泪。</t>
+  </si>
+  <si>
+    <t>sad_018</t>
+  </si>
+  <si>
+    <t>sad_019</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\happy_16.jpg</t>
+  </si>
+  <si>
+    <t>happy_007</t>
+  </si>
+  <si>
+    <t>sad_020</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\happy_2.jpg</t>
+  </si>
+  <si>
+    <t>happy_008</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\sad_27.jpg</t>
+  </si>
+  <si>
+    <t>emotion_data\audio\happy\Elderly0126S0053W0220.wav</t>
+  </si>
+  <si>
+    <t>现在也喝这几个月，感觉这个额感冒也少了，也有劲儿了，额也胖了。</t>
+  </si>
+  <si>
+    <t>sad_021</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\neutral_53.jpg</t>
+  </si>
+  <si>
+    <t>emotion_data\audio\sad\Elderly0104S0052W0265.wav</t>
+  </si>
+  <si>
+    <t>那个老人不好打老人什么的，吃的也不好，特别孤独，我觉得。</t>
+  </si>
+  <si>
+    <t>sad_022</t>
+  </si>
+  <si>
+    <t>sad_023</t>
+  </si>
+  <si>
+    <t>sad_024</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\sad_18.jpg</t>
+  </si>
+  <si>
+    <t>sad_025</t>
+  </si>
+  <si>
+    <t>neutral_032</t>
+  </si>
+  <si>
+    <t>neutral_033</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\neutral_41.jpg</t>
+  </si>
+  <si>
+    <t>neutral_034</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\happy_35.jpeg</t>
+  </si>
+  <si>
+    <t>emotion_data\audio\neutral\Elderly0037S0110W0001.wav</t>
+  </si>
+  <si>
+    <t>哎哟，这段时间啊，天气闷，又热。</t>
+  </si>
+  <si>
+    <t>neutral_035</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\neutral_44.jpeg</t>
+  </si>
+  <si>
+    <t>neutral_036</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\happy_22.jpeg</t>
+  </si>
+  <si>
+    <t>neutral_037</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\happy_17.jpg</t>
+  </si>
+  <si>
+    <t>neutral_038</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\neutral_91.jpeg</t>
+  </si>
+  <si>
+    <t>neutral_039</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\neutral_60.jpeg</t>
+  </si>
+  <si>
+    <t>neutral_040</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\neutral_6.jpg</t>
+  </si>
+  <si>
+    <t>neutral_041</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\happy_38.jpeg</t>
+  </si>
+  <si>
+    <t>neutral_042</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\neutral_20.jpg</t>
+  </si>
+  <si>
+    <t>neutral_043</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\happy_20.jpeg</t>
+  </si>
+  <si>
+    <t>emotion_data\audio\neutral\Elderly0101S0003W0109.wav</t>
+  </si>
+  <si>
+    <t>你越贵的东西，他们年轻人,哎哟，不分价格，买了就回来，小孩子不一定要吃，而且也不一定贵的东西不一定环保。</t>
+  </si>
+  <si>
+    <t>neutral_044</t>
+  </si>
+  <si>
+    <t>neutral_045</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\neutral_26.jpg</t>
+  </si>
+  <si>
+    <t>neutral_046</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\neutral_87.jpeg</t>
+  </si>
+  <si>
+    <t>neutral_047</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\neutral_28.jpg</t>
+  </si>
+  <si>
+    <t>neutral_048</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\happy_53.jpeg</t>
+  </si>
+  <si>
+    <t>neutral_049</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\happy_26.jpeg</t>
+  </si>
+  <si>
+    <t>neutral_050</t>
+  </si>
+  <si>
+    <t>neutral_051</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\neutral_40.jpeg</t>
+  </si>
+  <si>
+    <t>neutral_052</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\neutral_47.jpeg</t>
+  </si>
+  <si>
+    <t>neutral_053</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\happy_51.jpeg</t>
+  </si>
+  <si>
+    <t>neutral_054</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\neutral_64.jpeg</t>
+  </si>
+  <si>
+    <t>neutral_055</t>
+  </si>
+  <si>
+    <t>emotion_data\picture\neutral_67.jpeg</t>
+  </si>
+  <si>
+    <t>neutral_056</t>
   </si>
 </sst>
 </file>
@@ -1422,18 +1956,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.5309734513274" customWidth="1"/>
-    <col min="2" max="2" width="33.4601769911504" customWidth="1"/>
-    <col min="3" max="3" width="38.9646017699115" customWidth="1"/>
-    <col min="5" max="5" width="20.1858407079646" customWidth="1"/>
+    <col min="1" max="1" width="42.0884955752212" customWidth="1"/>
+    <col min="2" max="2" width="42.5575221238938" customWidth="1"/>
+    <col min="3" max="3" width="36.1150442477876" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2094,48 +2627,48 @@
         <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2146,22 +2679,22 @@
         <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s">
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2172,36 +2705,36 @@
         <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E30" t="s">
         <v>13</v>
@@ -2218,16 +2751,16 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E31" t="s">
         <v>13</v>
@@ -2244,28 +2777,28 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E32" t="s">
         <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2285,65 +2818,65 @@
         <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E34" t="s">
         <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H35" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2351,285 +2884,285 @@
         <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="E37" t="s">
         <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="E38" t="s">
         <v>20</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H38" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D40" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E41" t="s">
         <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" t="s">
         <v>108</v>
       </c>
-      <c r="B42" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" t="s">
-        <v>95</v>
-      </c>
       <c r="E42" t="s">
         <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C43" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="D43" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="E43" t="s">
         <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" t="s">
         <v>111</v>
       </c>
-      <c r="B44" t="s">
+      <c r="D44" t="s">
         <v>112</v>
       </c>
-      <c r="C44" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" t="s">
-        <v>105</v>
-      </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G44" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H44" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="D45" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G45" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G46" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2640,22 +3173,22 @@
         <v>116</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D47" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E47" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="G47" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="H47" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2666,30 +3199,30 @@
         <v>116</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E48" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="G48" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="H48" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
         <v>124</v>
@@ -2698,146 +3231,3864 @@
         <v>125</v>
       </c>
       <c r="E49" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B50" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C50" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="D50" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="E50" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="H50" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="D51" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E51" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="H51" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B52" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="D52" t="s">
-        <v>133</v>
+        <v>56</v>
       </c>
       <c r="E52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="H52" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" t="s">
         <v>130</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>131</v>
       </c>
-      <c r="C53" t="s">
-        <v>124</v>
-      </c>
       <c r="D53" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F53" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="H53" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" t="s">
         <v>130</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" t="s">
+        <v>137</v>
+      </c>
+      <c r="D55" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" t="s">
         <v>131</v>
       </c>
-      <c r="C54" t="s">
-        <v>126</v>
-      </c>
-      <c r="D54" t="s">
-        <v>127</v>
-      </c>
-      <c r="E54" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="D57" t="s">
+        <v>132</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" t="s">
+        <v>143</v>
+      </c>
+      <c r="D58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" t="s">
+        <v>147</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" t="s">
+        <v>134</v>
+      </c>
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>148</v>
+      </c>
+      <c r="B62" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62" t="s">
+        <v>138</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" t="s">
+        <v>124</v>
+      </c>
+      <c r="D63" t="s">
+        <v>125</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>148</v>
+      </c>
+      <c r="B64" t="s">
+        <v>149</v>
+      </c>
+      <c r="C64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D64" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" t="s">
+        <v>153</v>
+      </c>
+      <c r="D65" t="s">
+        <v>154</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>152</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" t="s">
+        <v>76</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>155</v>
+      </c>
+      <c r="B67" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67" t="s">
+        <v>147</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" t="s">
+        <v>150</v>
+      </c>
+      <c r="D68" t="s">
+        <v>151</v>
+      </c>
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" t="s">
+        <v>87</v>
+      </c>
+      <c r="D69" t="s">
+        <v>88</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>156</v>
+      </c>
+      <c r="B70" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" t="s">
+        <v>107</v>
+      </c>
+      <c r="D70" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" t="s">
+        <v>143</v>
+      </c>
+      <c r="D71" t="s">
+        <v>144</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" t="s">
+        <v>32</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" t="s">
+        <v>79</v>
+      </c>
+      <c r="D73" t="s">
+        <v>80</v>
+      </c>
+      <c r="E73" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>159</v>
+      </c>
+      <c r="B74" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" t="s">
+        <v>160</v>
+      </c>
+      <c r="D74" t="s">
+        <v>161</v>
+      </c>
+      <c r="E74" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" t="s">
+        <v>163</v>
+      </c>
+      <c r="C75" t="s">
+        <v>160</v>
+      </c>
+      <c r="D75" t="s">
+        <v>161</v>
+      </c>
+      <c r="E75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76" t="s">
+        <v>163</v>
+      </c>
+      <c r="C76" t="s">
+        <v>164</v>
+      </c>
+      <c r="D76" t="s">
+        <v>165</v>
+      </c>
+      <c r="E76" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>162</v>
+      </c>
+      <c r="B77" t="s">
+        <v>163</v>
+      </c>
+      <c r="C77" t="s">
+        <v>45</v>
+      </c>
+      <c r="D77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>166</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" t="s">
+        <v>28</v>
+      </c>
+      <c r="E78" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>167</v>
+      </c>
+      <c r="B79" t="s">
+        <v>168</v>
+      </c>
+      <c r="C79" t="s">
+        <v>131</v>
+      </c>
+      <c r="D79" t="s">
+        <v>132</v>
+      </c>
+      <c r="E79" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" t="s">
+        <v>168</v>
+      </c>
+      <c r="C80" t="s">
+        <v>169</v>
+      </c>
+      <c r="D80" t="s">
+        <v>170</v>
+      </c>
+      <c r="E80" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>171</v>
+      </c>
+      <c r="B81" t="s">
+        <v>172</v>
+      </c>
+      <c r="C81" t="s">
+        <v>173</v>
+      </c>
+      <c r="D81" t="s">
+        <v>174</v>
+      </c>
+      <c r="E81" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>171</v>
+      </c>
+      <c r="B82" t="s">
+        <v>172</v>
+      </c>
+      <c r="C82" t="s">
+        <v>143</v>
+      </c>
+      <c r="D82" t="s">
+        <v>144</v>
+      </c>
+      <c r="E82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>175</v>
+      </c>
+      <c r="B83" t="s">
+        <v>176</v>
+      </c>
+      <c r="C83" t="s">
+        <v>150</v>
+      </c>
+      <c r="D83" t="s">
+        <v>151</v>
+      </c>
+      <c r="E83" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>175</v>
+      </c>
+      <c r="B84" t="s">
+        <v>176</v>
+      </c>
+      <c r="C84" t="s">
+        <v>124</v>
+      </c>
+      <c r="D84" t="s">
+        <v>125</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>177</v>
+      </c>
+      <c r="B85" t="s">
+        <v>178</v>
+      </c>
+      <c r="C85" t="s">
+        <v>179</v>
+      </c>
+      <c r="D85" t="s">
+        <v>180</v>
+      </c>
+      <c r="E85" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>177</v>
+      </c>
+      <c r="B86" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" t="s">
+        <v>146</v>
+      </c>
+      <c r="D86" t="s">
+        <v>147</v>
+      </c>
+      <c r="E86" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>181</v>
+      </c>
+      <c r="B87" t="s">
+        <v>182</v>
+      </c>
+      <c r="C87" t="s">
+        <v>143</v>
+      </c>
+      <c r="D87" t="s">
+        <v>144</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>181</v>
+      </c>
+      <c r="B88" t="s">
+        <v>182</v>
+      </c>
+      <c r="C88" t="s">
+        <v>41</v>
+      </c>
+      <c r="D88" t="s">
+        <v>42</v>
+      </c>
+      <c r="E88" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>183</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" t="s">
+        <v>184</v>
+      </c>
+      <c r="D89" t="s">
+        <v>185</v>
+      </c>
+      <c r="E89" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>186</v>
+      </c>
+      <c r="B90" t="s">
+        <v>78</v>
+      </c>
+      <c r="C90" t="s">
+        <v>169</v>
+      </c>
+      <c r="D90" t="s">
+        <v>170</v>
+      </c>
+      <c r="E90" t="s">
+        <v>20</v>
+      </c>
+      <c r="F90" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>186</v>
+      </c>
+      <c r="B91" t="s">
+        <v>78</v>
+      </c>
+      <c r="C91" t="s">
+        <v>179</v>
+      </c>
+      <c r="D91" t="s">
+        <v>180</v>
+      </c>
+      <c r="E91" t="s">
+        <v>20</v>
+      </c>
+      <c r="F91" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>186</v>
+      </c>
+      <c r="B92" t="s">
+        <v>78</v>
+      </c>
+      <c r="C92" t="s">
+        <v>137</v>
+      </c>
+      <c r="D92" t="s">
+        <v>138</v>
+      </c>
+      <c r="E92" t="s">
+        <v>20</v>
+      </c>
+      <c r="F92" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" t="s">
+        <v>168</v>
+      </c>
+      <c r="C93" t="s">
+        <v>188</v>
+      </c>
+      <c r="D93" t="s">
+        <v>189</v>
+      </c>
+      <c r="E93" t="s">
+        <v>20</v>
+      </c>
+      <c r="F93" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94" t="s">
+        <v>168</v>
+      </c>
+      <c r="C94" t="s">
+        <v>184</v>
+      </c>
+      <c r="D94" t="s">
+        <v>185</v>
+      </c>
+      <c r="E94" t="s">
+        <v>20</v>
+      </c>
+      <c r="F94" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>187</v>
+      </c>
+      <c r="B95" t="s">
+        <v>168</v>
+      </c>
+      <c r="C95" t="s">
+        <v>190</v>
+      </c>
+      <c r="D95" t="s">
+        <v>191</v>
+      </c>
+      <c r="E95" t="s">
+        <v>20</v>
+      </c>
+      <c r="F95" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" t="s">
+        <v>83</v>
+      </c>
+      <c r="D96" t="s">
+        <v>84</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" t="s">
+        <v>20</v>
+      </c>
+      <c r="G96" t="s">
+        <v>20</v>
+      </c>
+      <c r="H96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>194</v>
+      </c>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" t="s">
+        <v>196</v>
+      </c>
+      <c r="D97" t="s">
+        <v>197</v>
+      </c>
+      <c r="E97" t="s">
+        <v>20</v>
+      </c>
+      <c r="F97" t="s">
+        <v>198</v>
+      </c>
+      <c r="G97" t="s">
+        <v>198</v>
+      </c>
+      <c r="H97" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98" t="s">
+        <v>199</v>
+      </c>
+      <c r="D98" t="s">
+        <v>200</v>
+      </c>
+      <c r="E98" t="s">
+        <v>20</v>
+      </c>
+      <c r="F98" t="s">
+        <v>198</v>
+      </c>
+      <c r="G98" t="s">
+        <v>198</v>
+      </c>
+      <c r="H98" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>201</v>
+      </c>
+      <c r="B99" t="s">
+        <v>202</v>
+      </c>
+      <c r="C99" t="s">
+        <v>203</v>
+      </c>
+      <c r="D99" t="s">
+        <v>204</v>
+      </c>
+      <c r="E99" t="s">
+        <v>20</v>
+      </c>
+      <c r="F99" t="s">
+        <v>20</v>
+      </c>
+      <c r="G99" t="s">
+        <v>20</v>
+      </c>
+      <c r="H99" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100" t="s">
+        <v>117</v>
+      </c>
+      <c r="D100" t="s">
+        <v>118</v>
+      </c>
+      <c r="E100" t="s">
+        <v>20</v>
+      </c>
+      <c r="F100" t="s">
+        <v>20</v>
+      </c>
+      <c r="G100" t="s">
+        <v>20</v>
+      </c>
+      <c r="H100" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>201</v>
+      </c>
+      <c r="B101" t="s">
+        <v>202</v>
+      </c>
+      <c r="C101" t="s">
+        <v>113</v>
+      </c>
+      <c r="D101" t="s">
+        <v>114</v>
+      </c>
+      <c r="E101" t="s">
+        <v>20</v>
+      </c>
+      <c r="F101" t="s">
+        <v>20</v>
+      </c>
+      <c r="G101" t="s">
+        <v>20</v>
+      </c>
+      <c r="H101" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>205</v>
+      </c>
+      <c r="B102" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102" t="s">
+        <v>111</v>
+      </c>
+      <c r="D102" t="s">
+        <v>112</v>
+      </c>
+      <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
+        <v>20</v>
+      </c>
+      <c r="G102" t="s">
+        <v>20</v>
+      </c>
+      <c r="H102" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103" t="s">
+        <v>113</v>
+      </c>
+      <c r="D103" t="s">
+        <v>114</v>
+      </c>
+      <c r="E103" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" t="s">
+        <v>20</v>
+      </c>
+      <c r="G103" t="s">
+        <v>20</v>
+      </c>
+      <c r="H103" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>209</v>
+      </c>
+      <c r="B104" t="s">
+        <v>210</v>
+      </c>
+      <c r="C104" t="s">
+        <v>211</v>
+      </c>
+      <c r="D104" t="s">
+        <v>212</v>
+      </c>
+      <c r="E104" t="s">
+        <v>198</v>
+      </c>
+      <c r="F104" t="s">
+        <v>198</v>
+      </c>
+      <c r="G104" t="s">
+        <v>198</v>
+      </c>
+      <c r="H104" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
+        <v>209</v>
+      </c>
+      <c r="B105" t="s">
+        <v>210</v>
+      </c>
+      <c r="C105" t="s">
+        <v>213</v>
+      </c>
+      <c r="D105" t="s">
+        <v>214</v>
+      </c>
+      <c r="E105" t="s">
+        <v>198</v>
+      </c>
+      <c r="F105" t="s">
+        <v>198</v>
+      </c>
+      <c r="G105" t="s">
+        <v>198</v>
+      </c>
+      <c r="H105" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" t="s">
+        <v>209</v>
+      </c>
+      <c r="B106" t="s">
+        <v>210</v>
+      </c>
+      <c r="C106" t="s">
+        <v>215</v>
+      </c>
+      <c r="D106" t="s">
+        <v>216</v>
+      </c>
+      <c r="E106" t="s">
+        <v>198</v>
+      </c>
+      <c r="F106" t="s">
+        <v>198</v>
+      </c>
+      <c r="G106" t="s">
+        <v>198</v>
+      </c>
+      <c r="H106" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" t="s">
+        <v>217</v>
+      </c>
+      <c r="B107" t="s">
+        <v>218</v>
+      </c>
+      <c r="C107" t="s">
+        <v>71</v>
+      </c>
+      <c r="D107" t="s">
+        <v>72</v>
+      </c>
+      <c r="E107" t="s">
+        <v>20</v>
+      </c>
+      <c r="F107" t="s">
+        <v>20</v>
+      </c>
+      <c r="G107" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
+        <v>217</v>
+      </c>
+      <c r="B108" t="s">
+        <v>218</v>
+      </c>
+      <c r="C108" t="s">
+        <v>219</v>
+      </c>
+      <c r="D108" t="s">
+        <v>220</v>
+      </c>
+      <c r="E108" t="s">
+        <v>20</v>
+      </c>
+      <c r="F108" t="s">
+        <v>20</v>
+      </c>
+      <c r="G108" t="s">
+        <v>20</v>
+      </c>
+      <c r="H108" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" t="s">
+        <v>221</v>
+      </c>
+      <c r="B109" t="s">
+        <v>222</v>
+      </c>
+      <c r="C109" t="s">
+        <v>223</v>
+      </c>
+      <c r="D109" t="s">
+        <v>224</v>
+      </c>
+      <c r="E109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" t="s">
+        <v>198</v>
+      </c>
+      <c r="G109" t="s">
+        <v>198</v>
+      </c>
+      <c r="H109" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" t="s">
+        <v>221</v>
+      </c>
+      <c r="B110" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110" t="s">
+        <v>211</v>
+      </c>
+      <c r="D110" t="s">
+        <v>212</v>
+      </c>
+      <c r="E110" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" t="s">
+        <v>198</v>
+      </c>
+      <c r="G110" t="s">
+        <v>198</v>
+      </c>
+      <c r="H110" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" t="s">
+        <v>221</v>
+      </c>
+      <c r="B111" t="s">
+        <v>222</v>
+      </c>
+      <c r="C111" t="s">
+        <v>213</v>
+      </c>
+      <c r="D111" t="s">
+        <v>214</v>
+      </c>
+      <c r="E111" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" t="s">
+        <v>198</v>
+      </c>
+      <c r="G111" t="s">
+        <v>198</v>
+      </c>
+      <c r="H111" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" t="s">
+        <v>225</v>
+      </c>
+      <c r="B112" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112" t="s">
+        <v>113</v>
+      </c>
+      <c r="D112" t="s">
+        <v>114</v>
+      </c>
+      <c r="E112" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" t="s">
+        <v>20</v>
+      </c>
+      <c r="G112" t="s">
+        <v>20</v>
+      </c>
+      <c r="H112" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" t="s">
+        <v>225</v>
+      </c>
+      <c r="B113" t="s">
+        <v>226</v>
+      </c>
+      <c r="C113" t="s">
+        <v>219</v>
+      </c>
+      <c r="D113" t="s">
+        <v>220</v>
+      </c>
+      <c r="E113" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" t="s">
+        <v>20</v>
+      </c>
+      <c r="G113" t="s">
+        <v>20</v>
+      </c>
+      <c r="H113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" t="s">
+        <v>227</v>
+      </c>
+      <c r="B114" t="s">
+        <v>228</v>
+      </c>
+      <c r="C114" t="s">
+        <v>223</v>
+      </c>
+      <c r="D114" t="s">
+        <v>224</v>
+      </c>
+      <c r="E114" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" t="s">
+        <v>198</v>
+      </c>
+      <c r="G114" t="s">
+        <v>198</v>
+      </c>
+      <c r="H114" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" t="s">
+        <v>229</v>
+      </c>
+      <c r="B115" t="s">
+        <v>230</v>
+      </c>
+      <c r="C115" t="s">
+        <v>231</v>
+      </c>
+      <c r="D115" t="s">
+        <v>232</v>
+      </c>
+      <c r="E115" t="s">
+        <v>198</v>
+      </c>
+      <c r="F115" t="s">
+        <v>198</v>
+      </c>
+      <c r="G115" t="s">
+        <v>198</v>
+      </c>
+      <c r="H115" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" t="s">
+        <v>233</v>
+      </c>
+      <c r="B116" t="s">
+        <v>234</v>
+      </c>
+      <c r="C116" t="s">
+        <v>113</v>
+      </c>
+      <c r="D116" t="s">
+        <v>114</v>
+      </c>
+      <c r="E116" t="s">
+        <v>198</v>
+      </c>
+      <c r="F116" t="s">
+        <v>20</v>
+      </c>
+      <c r="G116" t="s">
+        <v>20</v>
+      </c>
+      <c r="H116" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" t="s">
+        <v>233</v>
+      </c>
+      <c r="B117" t="s">
+        <v>234</v>
+      </c>
+      <c r="C117" t="s">
+        <v>69</v>
+      </c>
+      <c r="D117" t="s">
+        <v>70</v>
+      </c>
+      <c r="E117" t="s">
+        <v>198</v>
+      </c>
+      <c r="F117" t="s">
+        <v>20</v>
+      </c>
+      <c r="G117" t="s">
+        <v>20</v>
+      </c>
+      <c r="H117" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
+        <v>235</v>
+      </c>
+      <c r="B118" t="s">
+        <v>178</v>
+      </c>
+      <c r="C118" t="s">
+        <v>219</v>
+      </c>
+      <c r="D118" t="s">
+        <v>220</v>
+      </c>
+      <c r="E118" t="s">
+        <v>20</v>
+      </c>
+      <c r="F118" t="s">
+        <v>20</v>
+      </c>
+      <c r="G118" t="s">
+        <v>20</v>
+      </c>
+      <c r="H118" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" t="s">
+        <v>235</v>
+      </c>
+      <c r="B119" t="s">
+        <v>178</v>
+      </c>
+      <c r="C119" t="s">
+        <v>51</v>
+      </c>
+      <c r="D119" t="s">
+        <v>52</v>
+      </c>
+      <c r="E119" t="s">
+        <v>20</v>
+      </c>
+      <c r="F119" t="s">
+        <v>20</v>
+      </c>
+      <c r="G119" t="s">
+        <v>20</v>
+      </c>
+      <c r="H119" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" t="s">
+        <v>236</v>
+      </c>
+      <c r="B120" t="s">
+        <v>230</v>
+      </c>
+      <c r="C120" t="s">
+        <v>237</v>
+      </c>
+      <c r="D120" t="s">
+        <v>238</v>
+      </c>
+      <c r="E120" t="s">
+        <v>198</v>
+      </c>
+      <c r="F120" t="s">
+        <v>198</v>
+      </c>
+      <c r="G120" t="s">
+        <v>198</v>
+      </c>
+      <c r="H120" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" t="s">
+        <v>236</v>
+      </c>
+      <c r="B121" t="s">
+        <v>230</v>
+      </c>
+      <c r="C121" t="s">
+        <v>196</v>
+      </c>
+      <c r="D121" t="s">
+        <v>197</v>
+      </c>
+      <c r="E121" t="s">
+        <v>198</v>
+      </c>
+      <c r="F121" t="s">
+        <v>198</v>
+      </c>
+      <c r="G121" t="s">
+        <v>198</v>
+      </c>
+      <c r="H121" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" t="s">
+        <v>236</v>
+      </c>
+      <c r="B122" t="s">
+        <v>230</v>
+      </c>
+      <c r="C122" t="s">
+        <v>211</v>
+      </c>
+      <c r="D122" t="s">
+        <v>212</v>
+      </c>
+      <c r="E122" t="s">
+        <v>198</v>
+      </c>
+      <c r="F122" t="s">
+        <v>198</v>
+      </c>
+      <c r="G122" t="s">
+        <v>198</v>
+      </c>
+      <c r="H122" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" t="s">
+        <v>239</v>
+      </c>
+      <c r="B123" t="s">
+        <v>240</v>
+      </c>
+      <c r="C123" t="s">
+        <v>21</v>
+      </c>
+      <c r="D123" t="s">
+        <v>22</v>
+      </c>
+      <c r="E123" t="s">
+        <v>198</v>
+      </c>
+      <c r="F123" t="s">
+        <v>20</v>
+      </c>
+      <c r="G123" t="s">
+        <v>20</v>
+      </c>
+      <c r="H123" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" t="s">
+        <v>239</v>
+      </c>
+      <c r="B124" t="s">
+        <v>240</v>
+      </c>
+      <c r="C124" t="s">
+        <v>241</v>
+      </c>
+      <c r="D124" t="s">
+        <v>242</v>
+      </c>
+      <c r="E124" t="s">
+        <v>198</v>
+      </c>
+      <c r="F124" t="s">
+        <v>20</v>
+      </c>
+      <c r="G124" t="s">
+        <v>20</v>
+      </c>
+      <c r="H124" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" t="s">
+        <v>239</v>
+      </c>
+      <c r="B125" t="s">
+        <v>240</v>
+      </c>
+      <c r="C125" t="s">
+        <v>113</v>
+      </c>
+      <c r="D125" t="s">
+        <v>114</v>
+      </c>
+      <c r="E125" t="s">
+        <v>198</v>
+      </c>
+      <c r="F125" t="s">
+        <v>20</v>
+      </c>
+      <c r="G125" t="s">
+        <v>20</v>
+      </c>
+      <c r="H125" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" t="s">
+        <v>243</v>
+      </c>
+      <c r="B126" t="s">
+        <v>82</v>
+      </c>
+      <c r="C126" t="s">
+        <v>51</v>
+      </c>
+      <c r="D126" t="s">
+        <v>52</v>
+      </c>
+      <c r="E126" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" t="s">
+        <v>20</v>
+      </c>
+      <c r="G126" t="s">
+        <v>20</v>
+      </c>
+      <c r="H126" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" t="s">
+        <v>243</v>
+      </c>
+      <c r="B127" t="s">
+        <v>82</v>
+      </c>
+      <c r="C127" t="s">
+        <v>71</v>
+      </c>
+      <c r="D127" t="s">
+        <v>72</v>
+      </c>
+      <c r="E127" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" t="s">
+        <v>20</v>
+      </c>
+      <c r="G127" t="s">
+        <v>20</v>
+      </c>
+      <c r="H127" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" t="s">
+        <v>243</v>
+      </c>
+      <c r="B128" t="s">
+        <v>82</v>
+      </c>
+      <c r="C128" t="s">
+        <v>49</v>
+      </c>
+      <c r="D128" t="s">
+        <v>50</v>
+      </c>
+      <c r="E128" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" t="s">
+        <v>20</v>
+      </c>
+      <c r="G128" t="s">
+        <v>20</v>
+      </c>
+      <c r="H128" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" t="s">
+        <v>244</v>
+      </c>
+      <c r="B129" t="s">
+        <v>245</v>
+      </c>
+      <c r="C129" t="s">
+        <v>49</v>
+      </c>
+      <c r="D129" t="s">
+        <v>50</v>
+      </c>
+      <c r="E129" t="s">
+        <v>198</v>
+      </c>
+      <c r="F129" t="s">
+        <v>20</v>
+      </c>
+      <c r="G129" t="s">
+        <v>20</v>
+      </c>
+      <c r="H129" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" t="s">
+        <v>246</v>
+      </c>
+      <c r="B130" t="s">
+        <v>98</v>
+      </c>
+      <c r="C130" t="s">
+        <v>223</v>
+      </c>
+      <c r="D130" t="s">
+        <v>224</v>
+      </c>
+      <c r="E130" t="s">
+        <v>20</v>
+      </c>
+      <c r="F130" t="s">
+        <v>198</v>
+      </c>
+      <c r="G130" t="s">
+        <v>198</v>
+      </c>
+      <c r="H130" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" t="s">
+        <v>247</v>
+      </c>
+      <c r="B131" t="s">
+        <v>248</v>
+      </c>
+      <c r="C131" t="s">
+        <v>21</v>
+      </c>
+      <c r="D131" t="s">
+        <v>22</v>
+      </c>
+      <c r="E131" t="s">
+        <v>198</v>
+      </c>
+      <c r="F131" t="s">
+        <v>20</v>
+      </c>
+      <c r="G131" t="s">
+        <v>20</v>
+      </c>
+      <c r="H131" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" t="s">
+        <v>249</v>
+      </c>
+      <c r="B132" t="s">
+        <v>250</v>
+      </c>
+      <c r="C132" t="s">
+        <v>251</v>
+      </c>
+      <c r="D132" t="s">
+        <v>252</v>
+      </c>
+      <c r="E132" t="s">
+        <v>20</v>
+      </c>
+      <c r="F132" t="s">
+        <v>198</v>
+      </c>
+      <c r="G132" t="s">
+        <v>198</v>
+      </c>
+      <c r="H132" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" t="s">
+        <v>249</v>
+      </c>
+      <c r="B133" t="s">
+        <v>250</v>
+      </c>
+      <c r="C133" t="s">
+        <v>223</v>
+      </c>
+      <c r="D133" t="s">
+        <v>224</v>
+      </c>
+      <c r="E133" t="s">
+        <v>20</v>
+      </c>
+      <c r="F133" t="s">
+        <v>198</v>
+      </c>
+      <c r="G133" t="s">
+        <v>198</v>
+      </c>
+      <c r="H133" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" t="s">
+        <v>249</v>
+      </c>
+      <c r="B134" t="s">
+        <v>250</v>
+      </c>
+      <c r="C134" t="s">
+        <v>211</v>
+      </c>
+      <c r="D134" t="s">
+        <v>212</v>
+      </c>
+      <c r="E134" t="s">
+        <v>20</v>
+      </c>
+      <c r="F134" t="s">
+        <v>198</v>
+      </c>
+      <c r="G134" t="s">
+        <v>198</v>
+      </c>
+      <c r="H134" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" t="s">
+        <v>253</v>
+      </c>
+      <c r="B135" t="s">
+        <v>254</v>
+      </c>
+      <c r="C135" t="s">
+        <v>117</v>
+      </c>
+      <c r="D135" t="s">
+        <v>118</v>
+      </c>
+      <c r="E135" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135" t="s">
+        <v>20</v>
+      </c>
+      <c r="G135" t="s">
+        <v>20</v>
+      </c>
+      <c r="H135" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" t="s">
+        <v>253</v>
+      </c>
+      <c r="B136" t="s">
+        <v>254</v>
+      </c>
+      <c r="C136" t="s">
+        <v>255</v>
+      </c>
+      <c r="D136" t="s">
+        <v>256</v>
+      </c>
+      <c r="E136" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" t="s">
+        <v>20</v>
+      </c>
+      <c r="G136" t="s">
+        <v>20</v>
+      </c>
+      <c r="H136" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" t="s">
+        <v>253</v>
+      </c>
+      <c r="B137" t="s">
+        <v>254</v>
+      </c>
+      <c r="C137" t="s">
         <v>119</v>
       </c>
-      <c r="G54" t="s">
-        <v>119</v>
-      </c>
-      <c r="H54" t="s">
-        <v>119</v>
+      <c r="D137" t="s">
+        <v>120</v>
+      </c>
+      <c r="E137" t="s">
+        <v>13</v>
+      </c>
+      <c r="F137" t="s">
+        <v>20</v>
+      </c>
+      <c r="G137" t="s">
+        <v>20</v>
+      </c>
+      <c r="H137" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" t="s">
+        <v>257</v>
+      </c>
+      <c r="B138" t="s">
+        <v>195</v>
+      </c>
+      <c r="C138" t="s">
+        <v>117</v>
+      </c>
+      <c r="D138" t="s">
+        <v>118</v>
+      </c>
+      <c r="E138" t="s">
+        <v>20</v>
+      </c>
+      <c r="F138" t="s">
+        <v>20</v>
+      </c>
+      <c r="G138" t="s">
+        <v>20</v>
+      </c>
+      <c r="H138" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" t="s">
+        <v>258</v>
+      </c>
+      <c r="B139" t="s">
+        <v>245</v>
+      </c>
+      <c r="C139" t="s">
+        <v>21</v>
+      </c>
+      <c r="D139" t="s">
+        <v>22</v>
+      </c>
+      <c r="E139" t="s">
+        <v>198</v>
+      </c>
+      <c r="F139" t="s">
+        <v>20</v>
+      </c>
+      <c r="G139" t="s">
+        <v>20</v>
+      </c>
+      <c r="H139" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" t="s">
+        <v>258</v>
+      </c>
+      <c r="B140" t="s">
+        <v>245</v>
+      </c>
+      <c r="C140" t="s">
+        <v>51</v>
+      </c>
+      <c r="D140" t="s">
+        <v>52</v>
+      </c>
+      <c r="E140" t="s">
+        <v>198</v>
+      </c>
+      <c r="F140" t="s">
+        <v>20</v>
+      </c>
+      <c r="G140" t="s">
+        <v>20</v>
+      </c>
+      <c r="H140" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" t="s">
+        <v>258</v>
+      </c>
+      <c r="B141" t="s">
+        <v>245</v>
+      </c>
+      <c r="C141" t="s">
+        <v>69</v>
+      </c>
+      <c r="D141" t="s">
+        <v>70</v>
+      </c>
+      <c r="E141" t="s">
+        <v>198</v>
+      </c>
+      <c r="F141" t="s">
+        <v>20</v>
+      </c>
+      <c r="G141" t="s">
+        <v>20</v>
+      </c>
+      <c r="H141" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" t="s">
+        <v>259</v>
+      </c>
+      <c r="B142" t="s">
+        <v>260</v>
+      </c>
+      <c r="C142" t="s">
+        <v>203</v>
+      </c>
+      <c r="D142" t="s">
+        <v>204</v>
+      </c>
+      <c r="E142" t="s">
+        <v>20</v>
+      </c>
+      <c r="F142" t="s">
+        <v>20</v>
+      </c>
+      <c r="G142" t="s">
+        <v>20</v>
+      </c>
+      <c r="H142" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" t="s">
+        <v>259</v>
+      </c>
+      <c r="B143" t="s">
+        <v>260</v>
+      </c>
+      <c r="C143" t="s">
+        <v>121</v>
+      </c>
+      <c r="D143" t="s">
+        <v>122</v>
+      </c>
+      <c r="E143" t="s">
+        <v>20</v>
+      </c>
+      <c r="F143" t="s">
+        <v>20</v>
+      </c>
+      <c r="G143" t="s">
+        <v>20</v>
+      </c>
+      <c r="H143" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" t="s">
+        <v>261</v>
+      </c>
+      <c r="B144" t="s">
+        <v>168</v>
+      </c>
+      <c r="C144" t="s">
+        <v>83</v>
+      </c>
+      <c r="D144" t="s">
+        <v>84</v>
+      </c>
+      <c r="E144" t="s">
+        <v>20</v>
+      </c>
+      <c r="F144" t="s">
+        <v>20</v>
+      </c>
+      <c r="G144" t="s">
+        <v>20</v>
+      </c>
+      <c r="H144" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" t="s">
+        <v>261</v>
+      </c>
+      <c r="B145" t="s">
+        <v>168</v>
+      </c>
+      <c r="C145" t="s">
+        <v>18</v>
+      </c>
+      <c r="D145" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145" t="s">
+        <v>20</v>
+      </c>
+      <c r="F145" t="s">
+        <v>20</v>
+      </c>
+      <c r="G145" t="s">
+        <v>20</v>
+      </c>
+      <c r="H145" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" t="s">
+        <v>262</v>
+      </c>
+      <c r="B146" t="s">
+        <v>136</v>
+      </c>
+      <c r="C146" t="s">
+        <v>35</v>
+      </c>
+      <c r="D146" t="s">
+        <v>36</v>
+      </c>
+      <c r="E146" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" t="s">
+        <v>13</v>
+      </c>
+      <c r="G146" t="s">
+        <v>13</v>
+      </c>
+      <c r="H146" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" t="s">
+        <v>262</v>
+      </c>
+      <c r="B147" t="s">
+        <v>136</v>
+      </c>
+      <c r="C147" t="s">
+        <v>27</v>
+      </c>
+      <c r="D147" t="s">
+        <v>28</v>
+      </c>
+      <c r="E147" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" t="s">
+        <v>13</v>
+      </c>
+      <c r="G147" t="s">
+        <v>13</v>
+      </c>
+      <c r="H147" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" t="s">
+        <v>263</v>
+      </c>
+      <c r="B148" t="s">
+        <v>264</v>
+      </c>
+      <c r="C148" t="s">
+        <v>25</v>
+      </c>
+      <c r="D148" t="s">
+        <v>26</v>
+      </c>
+      <c r="E148" t="s">
+        <v>13</v>
+      </c>
+      <c r="F148" t="s">
+        <v>13</v>
+      </c>
+      <c r="G148" t="s">
+        <v>13</v>
+      </c>
+      <c r="H148" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" t="s">
+        <v>263</v>
+      </c>
+      <c r="B149" t="s">
+        <v>264</v>
+      </c>
+      <c r="C149" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149" t="s">
+        <v>13</v>
+      </c>
+      <c r="F149" t="s">
+        <v>13</v>
+      </c>
+      <c r="G149" t="s">
+        <v>13</v>
+      </c>
+      <c r="H149" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" t="s">
+        <v>263</v>
+      </c>
+      <c r="B150" t="s">
+        <v>264</v>
+      </c>
+      <c r="C150" t="s">
+        <v>190</v>
+      </c>
+      <c r="D150" t="s">
+        <v>191</v>
+      </c>
+      <c r="E150" t="s">
+        <v>13</v>
+      </c>
+      <c r="F150" t="s">
+        <v>13</v>
+      </c>
+      <c r="G150" t="s">
+        <v>13</v>
+      </c>
+      <c r="H150" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" t="s">
+        <v>265</v>
+      </c>
+      <c r="B151" t="s">
+        <v>266</v>
+      </c>
+      <c r="C151" t="s">
+        <v>267</v>
+      </c>
+      <c r="D151" t="s">
+        <v>268</v>
+      </c>
+      <c r="E151" t="s">
+        <v>198</v>
+      </c>
+      <c r="F151" t="s">
+        <v>13</v>
+      </c>
+      <c r="G151" t="s">
+        <v>13</v>
+      </c>
+      <c r="H151" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" t="s">
+        <v>269</v>
+      </c>
+      <c r="B152" t="s">
+        <v>270</v>
+      </c>
+      <c r="C152" t="s">
+        <v>35</v>
+      </c>
+      <c r="D152" t="s">
+        <v>36</v>
+      </c>
+      <c r="E152" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152" t="s">
+        <v>13</v>
+      </c>
+      <c r="G152" t="s">
+        <v>13</v>
+      </c>
+      <c r="H152" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" t="s">
+        <v>271</v>
+      </c>
+      <c r="B153" t="s">
+        <v>272</v>
+      </c>
+      <c r="C153" t="s">
+        <v>45</v>
+      </c>
+      <c r="D153" t="s">
+        <v>46</v>
+      </c>
+      <c r="E153" t="s">
+        <v>198</v>
+      </c>
+      <c r="F153" t="s">
+        <v>13</v>
+      </c>
+      <c r="G153" t="s">
+        <v>13</v>
+      </c>
+      <c r="H153" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" t="s">
+        <v>271</v>
+      </c>
+      <c r="B154" t="s">
+        <v>272</v>
+      </c>
+      <c r="C154" t="s">
+        <v>31</v>
+      </c>
+      <c r="D154" t="s">
+        <v>32</v>
+      </c>
+      <c r="E154" t="s">
+        <v>198</v>
+      </c>
+      <c r="F154" t="s">
+        <v>13</v>
+      </c>
+      <c r="G154" t="s">
+        <v>13</v>
+      </c>
+      <c r="H154" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" t="s">
+        <v>273</v>
+      </c>
+      <c r="B155" t="s">
+        <v>274</v>
+      </c>
+      <c r="C155" t="s">
+        <v>107</v>
+      </c>
+      <c r="D155" t="s">
+        <v>108</v>
+      </c>
+      <c r="E155" t="s">
+        <v>198</v>
+      </c>
+      <c r="F155" t="s">
+        <v>13</v>
+      </c>
+      <c r="G155" t="s">
+        <v>13</v>
+      </c>
+      <c r="H155" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" t="s">
+        <v>273</v>
+      </c>
+      <c r="B156" t="s">
+        <v>274</v>
+      </c>
+      <c r="C156" t="s">
+        <v>173</v>
+      </c>
+      <c r="D156" t="s">
+        <v>174</v>
+      </c>
+      <c r="E156" t="s">
+        <v>198</v>
+      </c>
+      <c r="F156" t="s">
+        <v>13</v>
+      </c>
+      <c r="G156" t="s">
+        <v>13</v>
+      </c>
+      <c r="H156" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" t="s">
+        <v>273</v>
+      </c>
+      <c r="B157" t="s">
+        <v>274</v>
+      </c>
+      <c r="C157" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157" t="s">
+        <v>15</v>
+      </c>
+      <c r="E157" t="s">
+        <v>198</v>
+      </c>
+      <c r="F157" t="s">
+        <v>13</v>
+      </c>
+      <c r="G157" t="s">
+        <v>13</v>
+      </c>
+      <c r="H157" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" t="s">
+        <v>275</v>
+      </c>
+      <c r="B158" t="s">
+        <v>276</v>
+      </c>
+      <c r="C158" t="s">
+        <v>39</v>
+      </c>
+      <c r="D158" t="s">
+        <v>40</v>
+      </c>
+      <c r="E158" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158" t="s">
+        <v>13</v>
+      </c>
+      <c r="G158" t="s">
+        <v>13</v>
+      </c>
+      <c r="H158" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" t="s">
+        <v>277</v>
+      </c>
+      <c r="B159" t="s">
+        <v>278</v>
+      </c>
+      <c r="C159" t="s">
+        <v>41</v>
+      </c>
+      <c r="D159" t="s">
+        <v>42</v>
+      </c>
+      <c r="E159" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" t="s">
+        <v>13</v>
+      </c>
+      <c r="G159" t="s">
+        <v>13</v>
+      </c>
+      <c r="H159" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" t="s">
+        <v>279</v>
+      </c>
+      <c r="B160" t="s">
+        <v>280</v>
+      </c>
+      <c r="C160" t="s">
+        <v>101</v>
+      </c>
+      <c r="D160" t="s">
+        <v>102</v>
+      </c>
+      <c r="E160" t="s">
+        <v>13</v>
+      </c>
+      <c r="F160" t="s">
+        <v>13</v>
+      </c>
+      <c r="G160" t="s">
+        <v>13</v>
+      </c>
+      <c r="H160" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" t="s">
+        <v>279</v>
+      </c>
+      <c r="B161" t="s">
+        <v>280</v>
+      </c>
+      <c r="C161" t="s">
+        <v>184</v>
+      </c>
+      <c r="D161" t="s">
+        <v>185</v>
+      </c>
+      <c r="E161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F161" t="s">
+        <v>13</v>
+      </c>
+      <c r="G161" t="s">
+        <v>13</v>
+      </c>
+      <c r="H161" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" t="s">
+        <v>281</v>
+      </c>
+      <c r="B162" t="s">
+        <v>282</v>
+      </c>
+      <c r="C162" t="s">
+        <v>31</v>
+      </c>
+      <c r="D162" t="s">
+        <v>32</v>
+      </c>
+      <c r="E162" t="s">
+        <v>198</v>
+      </c>
+      <c r="F162" t="s">
+        <v>13</v>
+      </c>
+      <c r="G162" t="s">
+        <v>13</v>
+      </c>
+      <c r="H162" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" t="s">
+        <v>281</v>
+      </c>
+      <c r="B163" t="s">
+        <v>282</v>
+      </c>
+      <c r="C163" t="s">
+        <v>75</v>
+      </c>
+      <c r="D163" t="s">
+        <v>76</v>
+      </c>
+      <c r="E163" t="s">
+        <v>198</v>
+      </c>
+      <c r="F163" t="s">
+        <v>13</v>
+      </c>
+      <c r="G163" t="s">
+        <v>13</v>
+      </c>
+      <c r="H163" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" t="s">
+        <v>283</v>
+      </c>
+      <c r="B164" t="s">
+        <v>284</v>
+      </c>
+      <c r="C164" t="s">
+        <v>160</v>
+      </c>
+      <c r="D164" t="s">
+        <v>161</v>
+      </c>
+      <c r="E164" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" t="s">
+        <v>13</v>
+      </c>
+      <c r="G164" t="s">
+        <v>13</v>
+      </c>
+      <c r="H164" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" t="s">
+        <v>285</v>
+      </c>
+      <c r="B165" t="s">
+        <v>286</v>
+      </c>
+      <c r="C165" t="s">
+        <v>107</v>
+      </c>
+      <c r="D165" t="s">
+        <v>108</v>
+      </c>
+      <c r="E165" t="s">
+        <v>198</v>
+      </c>
+      <c r="F165" t="s">
+        <v>13</v>
+      </c>
+      <c r="G165" t="s">
+        <v>13</v>
+      </c>
+      <c r="H165" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" t="s">
+        <v>285</v>
+      </c>
+      <c r="B166" t="s">
+        <v>286</v>
+      </c>
+      <c r="C166" t="s">
+        <v>287</v>
+      </c>
+      <c r="D166" t="s">
+        <v>288</v>
+      </c>
+      <c r="E166" t="s">
+        <v>198</v>
+      </c>
+      <c r="F166" t="s">
+        <v>13</v>
+      </c>
+      <c r="G166" t="s">
+        <v>13</v>
+      </c>
+      <c r="H166" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" t="s">
+        <v>289</v>
+      </c>
+      <c r="B167" t="s">
+        <v>248</v>
+      </c>
+      <c r="C167" t="s">
+        <v>164</v>
+      </c>
+      <c r="D167" t="s">
+        <v>165</v>
+      </c>
+      <c r="E167" t="s">
+        <v>198</v>
+      </c>
+      <c r="F167" t="s">
+        <v>13</v>
+      </c>
+      <c r="G167" t="s">
+        <v>13</v>
+      </c>
+      <c r="H167" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" t="s">
+        <v>289</v>
+      </c>
+      <c r="B168" t="s">
+        <v>248</v>
+      </c>
+      <c r="C168" t="s">
+        <v>287</v>
+      </c>
+      <c r="D168" t="s">
+        <v>288</v>
+      </c>
+      <c r="E168" t="s">
+        <v>198</v>
+      </c>
+      <c r="F168" t="s">
+        <v>13</v>
+      </c>
+      <c r="G168" t="s">
+        <v>13</v>
+      </c>
+      <c r="H168" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" t="s">
+        <v>289</v>
+      </c>
+      <c r="B169" t="s">
+        <v>248</v>
+      </c>
+      <c r="C169" t="s">
+        <v>101</v>
+      </c>
+      <c r="D169" t="s">
+        <v>102</v>
+      </c>
+      <c r="E169" t="s">
+        <v>198</v>
+      </c>
+      <c r="F169" t="s">
+        <v>13</v>
+      </c>
+      <c r="G169" t="s">
+        <v>13</v>
+      </c>
+      <c r="H169" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" t="s">
+        <v>290</v>
+      </c>
+      <c r="B170" t="s">
+        <v>291</v>
+      </c>
+      <c r="C170" t="s">
+        <v>173</v>
+      </c>
+      <c r="D170" t="s">
+        <v>174</v>
+      </c>
+      <c r="E170" t="s">
+        <v>13</v>
+      </c>
+      <c r="F170" t="s">
+        <v>13</v>
+      </c>
+      <c r="G170" t="s">
+        <v>13</v>
+      </c>
+      <c r="H170" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" t="s">
+        <v>290</v>
+      </c>
+      <c r="B171" t="s">
+        <v>291</v>
+      </c>
+      <c r="C171" t="s">
+        <v>31</v>
+      </c>
+      <c r="D171" t="s">
+        <v>32</v>
+      </c>
+      <c r="E171" t="s">
+        <v>13</v>
+      </c>
+      <c r="F171" t="s">
+        <v>13</v>
+      </c>
+      <c r="G171" t="s">
+        <v>13</v>
+      </c>
+      <c r="H171" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" t="s">
+        <v>290</v>
+      </c>
+      <c r="B172" t="s">
+        <v>291</v>
+      </c>
+      <c r="C172" t="s">
+        <v>87</v>
+      </c>
+      <c r="D172" t="s">
+        <v>88</v>
+      </c>
+      <c r="E172" t="s">
+        <v>13</v>
+      </c>
+      <c r="F172" t="s">
+        <v>13</v>
+      </c>
+      <c r="G172" t="s">
+        <v>13</v>
+      </c>
+      <c r="H172" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" t="s">
+        <v>292</v>
+      </c>
+      <c r="B173" t="s">
+        <v>293</v>
+      </c>
+      <c r="C173" t="s">
+        <v>95</v>
+      </c>
+      <c r="D173" t="s">
+        <v>96</v>
+      </c>
+      <c r="E173" t="s">
+        <v>13</v>
+      </c>
+      <c r="F173" t="s">
+        <v>13</v>
+      </c>
+      <c r="G173" t="s">
+        <v>13</v>
+      </c>
+      <c r="H173" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" t="s">
+        <v>292</v>
+      </c>
+      <c r="B174" t="s">
+        <v>293</v>
+      </c>
+      <c r="C174" t="s">
+        <v>79</v>
+      </c>
+      <c r="D174" t="s">
+        <v>80</v>
+      </c>
+      <c r="E174" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" t="s">
+        <v>13</v>
+      </c>
+      <c r="G174" t="s">
+        <v>13</v>
+      </c>
+      <c r="H174" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" t="s">
+        <v>294</v>
+      </c>
+      <c r="B175" t="s">
+        <v>295</v>
+      </c>
+      <c r="C175" t="s">
+        <v>190</v>
+      </c>
+      <c r="D175" t="s">
+        <v>191</v>
+      </c>
+      <c r="E175" t="s">
+        <v>13</v>
+      </c>
+      <c r="F175" t="s">
+        <v>13</v>
+      </c>
+      <c r="G175" t="s">
+        <v>13</v>
+      </c>
+      <c r="H175" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" t="s">
+        <v>294</v>
+      </c>
+      <c r="B176" t="s">
+        <v>295</v>
+      </c>
+      <c r="C176" t="s">
+        <v>184</v>
+      </c>
+      <c r="D176" t="s">
+        <v>185</v>
+      </c>
+      <c r="E176" t="s">
+        <v>13</v>
+      </c>
+      <c r="F176" t="s">
+        <v>13</v>
+      </c>
+      <c r="G176" t="s">
+        <v>13</v>
+      </c>
+      <c r="H176" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" t="s">
+        <v>294</v>
+      </c>
+      <c r="B177" t="s">
+        <v>295</v>
+      </c>
+      <c r="C177" t="s">
+        <v>66</v>
+      </c>
+      <c r="D177" t="s">
+        <v>67</v>
+      </c>
+      <c r="E177" t="s">
+        <v>13</v>
+      </c>
+      <c r="F177" t="s">
+        <v>13</v>
+      </c>
+      <c r="G177" t="s">
+        <v>13</v>
+      </c>
+      <c r="H177" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" t="s">
+        <v>296</v>
+      </c>
+      <c r="B178" t="s">
+        <v>297</v>
+      </c>
+      <c r="C178" t="s">
+        <v>143</v>
+      </c>
+      <c r="D178" t="s">
+        <v>144</v>
+      </c>
+      <c r="E178" t="s">
+        <v>198</v>
+      </c>
+      <c r="F178" t="s">
+        <v>13</v>
+      </c>
+      <c r="G178" t="s">
+        <v>13</v>
+      </c>
+      <c r="H178" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" t="s">
+        <v>298</v>
+      </c>
+      <c r="B179" t="s">
+        <v>299</v>
+      </c>
+      <c r="C179" t="s">
+        <v>188</v>
+      </c>
+      <c r="D179" t="s">
+        <v>189</v>
+      </c>
+      <c r="E179" t="s">
+        <v>198</v>
+      </c>
+      <c r="F179" t="s">
+        <v>13</v>
+      </c>
+      <c r="G179" t="s">
+        <v>13</v>
+      </c>
+      <c r="H179" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" t="s">
+        <v>298</v>
+      </c>
+      <c r="B180" t="s">
+        <v>299</v>
+      </c>
+      <c r="C180" t="s">
+        <v>31</v>
+      </c>
+      <c r="D180" t="s">
+        <v>32</v>
+      </c>
+      <c r="E180" t="s">
+        <v>198</v>
+      </c>
+      <c r="F180" t="s">
+        <v>13</v>
+      </c>
+      <c r="G180" t="s">
+        <v>13</v>
+      </c>
+      <c r="H180" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" t="s">
+        <v>298</v>
+      </c>
+      <c r="B181" t="s">
+        <v>299</v>
+      </c>
+      <c r="C181" t="s">
+        <v>143</v>
+      </c>
+      <c r="D181" t="s">
+        <v>144</v>
+      </c>
+      <c r="E181" t="s">
+        <v>198</v>
+      </c>
+      <c r="F181" t="s">
+        <v>13</v>
+      </c>
+      <c r="G181" t="s">
+        <v>13</v>
+      </c>
+      <c r="H181" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" t="s">
+        <v>300</v>
+      </c>
+      <c r="B182" t="s">
+        <v>266</v>
+      </c>
+      <c r="C182" t="s">
+        <v>55</v>
+      </c>
+      <c r="D182" t="s">
+        <v>56</v>
+      </c>
+      <c r="E182" t="s">
+        <v>198</v>
+      </c>
+      <c r="F182" t="s">
+        <v>13</v>
+      </c>
+      <c r="G182" t="s">
+        <v>13</v>
+      </c>
+      <c r="H182" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" t="s">
+        <v>300</v>
+      </c>
+      <c r="B183" t="s">
+        <v>266</v>
+      </c>
+      <c r="C183" t="s">
+        <v>75</v>
+      </c>
+      <c r="D183" t="s">
+        <v>76</v>
+      </c>
+      <c r="E183" t="s">
+        <v>198</v>
+      </c>
+      <c r="F183" t="s">
+        <v>13</v>
+      </c>
+      <c r="G183" t="s">
+        <v>13</v>
+      </c>
+      <c r="H183" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" t="s">
+        <v>300</v>
+      </c>
+      <c r="B184" t="s">
+        <v>266</v>
+      </c>
+      <c r="C184" t="s">
+        <v>287</v>
+      </c>
+      <c r="D184" t="s">
+        <v>288</v>
+      </c>
+      <c r="E184" t="s">
+        <v>198</v>
+      </c>
+      <c r="F184" t="s">
+        <v>13</v>
+      </c>
+      <c r="G184" t="s">
+        <v>13</v>
+      </c>
+      <c r="H184" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" t="s">
+        <v>301</v>
+      </c>
+      <c r="B185" t="s">
+        <v>302</v>
+      </c>
+      <c r="C185" t="s">
+        <v>184</v>
+      </c>
+      <c r="D185" t="s">
+        <v>185</v>
+      </c>
+      <c r="E185" t="s">
+        <v>13</v>
+      </c>
+      <c r="F185" t="s">
+        <v>13</v>
+      </c>
+      <c r="G185" t="s">
+        <v>13</v>
+      </c>
+      <c r="H185" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" t="s">
+        <v>301</v>
+      </c>
+      <c r="B186" t="s">
+        <v>302</v>
+      </c>
+      <c r="C186" t="s">
+        <v>39</v>
+      </c>
+      <c r="D186" t="s">
+        <v>40</v>
+      </c>
+      <c r="E186" t="s">
+        <v>13</v>
+      </c>
+      <c r="F186" t="s">
+        <v>13</v>
+      </c>
+      <c r="G186" t="s">
+        <v>13</v>
+      </c>
+      <c r="H186" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" t="s">
+        <v>301</v>
+      </c>
+      <c r="B187" t="s">
+        <v>302</v>
+      </c>
+      <c r="C187" t="s">
+        <v>103</v>
+      </c>
+      <c r="D187" t="s">
+        <v>104</v>
+      </c>
+      <c r="E187" t="s">
+        <v>13</v>
+      </c>
+      <c r="F187" t="s">
+        <v>13</v>
+      </c>
+      <c r="G187" t="s">
+        <v>13</v>
+      </c>
+      <c r="H187" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" t="s">
+        <v>303</v>
+      </c>
+      <c r="B188" t="s">
+        <v>304</v>
+      </c>
+      <c r="C188" t="s">
+        <v>95</v>
+      </c>
+      <c r="D188" t="s">
+        <v>96</v>
+      </c>
+      <c r="E188" t="s">
+        <v>13</v>
+      </c>
+      <c r="F188" t="s">
+        <v>13</v>
+      </c>
+      <c r="G188" t="s">
+        <v>13</v>
+      </c>
+      <c r="H188" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" t="s">
+        <v>303</v>
+      </c>
+      <c r="B189" t="s">
+        <v>304</v>
+      </c>
+      <c r="C189" t="s">
+        <v>101</v>
+      </c>
+      <c r="D189" t="s">
+        <v>102</v>
+      </c>
+      <c r="E189" t="s">
+        <v>13</v>
+      </c>
+      <c r="F189" t="s">
+        <v>13</v>
+      </c>
+      <c r="G189" t="s">
+        <v>13</v>
+      </c>
+      <c r="H189" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" t="s">
+        <v>305</v>
+      </c>
+      <c r="B190" t="s">
+        <v>306</v>
+      </c>
+      <c r="C190" t="s">
+        <v>287</v>
+      </c>
+      <c r="D190" t="s">
+        <v>288</v>
+      </c>
+      <c r="E190" t="s">
+        <v>198</v>
+      </c>
+      <c r="F190" t="s">
+        <v>13</v>
+      </c>
+      <c r="G190" t="s">
+        <v>13</v>
+      </c>
+      <c r="H190" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" t="s">
+        <v>305</v>
+      </c>
+      <c r="B191" t="s">
+        <v>306</v>
+      </c>
+      <c r="C191" t="s">
+        <v>267</v>
+      </c>
+      <c r="D191" t="s">
+        <v>268</v>
+      </c>
+      <c r="E191" t="s">
+        <v>198</v>
+      </c>
+      <c r="F191" t="s">
+        <v>13</v>
+      </c>
+      <c r="G191" t="s">
+        <v>13</v>
+      </c>
+      <c r="H191" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" t="s">
+        <v>305</v>
+      </c>
+      <c r="B192" t="s">
+        <v>306</v>
+      </c>
+      <c r="C192" t="s">
+        <v>60</v>
+      </c>
+      <c r="D192" t="s">
+        <v>61</v>
+      </c>
+      <c r="E192" t="s">
+        <v>198</v>
+      </c>
+      <c r="F192" t="s">
+        <v>13</v>
+      </c>
+      <c r="G192" t="s">
+        <v>13</v>
+      </c>
+      <c r="H192" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" t="s">
+        <v>307</v>
+      </c>
+      <c r="B193" t="s">
+        <v>308</v>
+      </c>
+      <c r="C193" t="s">
+        <v>107</v>
+      </c>
+      <c r="D193" t="s">
+        <v>108</v>
+      </c>
+      <c r="E193" t="s">
+        <v>13</v>
+      </c>
+      <c r="F193" t="s">
+        <v>13</v>
+      </c>
+      <c r="G193" t="s">
+        <v>13</v>
+      </c>
+      <c r="H193" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" t="s">
+        <v>309</v>
+      </c>
+      <c r="B194" t="s">
+        <v>310</v>
+      </c>
+      <c r="C194" t="s">
+        <v>14</v>
+      </c>
+      <c r="D194" t="s">
+        <v>15</v>
+      </c>
+      <c r="E194" t="s">
+        <v>13</v>
+      </c>
+      <c r="F194" t="s">
+        <v>13</v>
+      </c>
+      <c r="G194" t="s">
+        <v>13</v>
+      </c>
+      <c r="H194" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" t="s">
+        <v>309</v>
+      </c>
+      <c r="B195" t="s">
+        <v>310</v>
+      </c>
+      <c r="C195" t="s">
+        <v>66</v>
+      </c>
+      <c r="D195" t="s">
+        <v>67</v>
+      </c>
+      <c r="E195" t="s">
+        <v>13</v>
+      </c>
+      <c r="F195" t="s">
+        <v>13</v>
+      </c>
+      <c r="G195" t="s">
+        <v>13</v>
+      </c>
+      <c r="H195" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" t="s">
+        <v>311</v>
+      </c>
+      <c r="B196" t="s">
+        <v>280</v>
+      </c>
+      <c r="C196" t="s">
+        <v>39</v>
+      </c>
+      <c r="D196" t="s">
+        <v>40</v>
+      </c>
+      <c r="E196" t="s">
+        <v>13</v>
+      </c>
+      <c r="F196" t="s">
+        <v>13</v>
+      </c>
+      <c r="G196" t="s">
+        <v>13</v>
+      </c>
+      <c r="H196" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" t="s">
+        <v>311</v>
+      </c>
+      <c r="B197" t="s">
+        <v>280</v>
+      </c>
+      <c r="C197" t="s">
+        <v>41</v>
+      </c>
+      <c r="D197" t="s">
+        <v>42</v>
+      </c>
+      <c r="E197" t="s">
+        <v>13</v>
+      </c>
+      <c r="F197" t="s">
+        <v>13</v>
+      </c>
+      <c r="G197" t="s">
+        <v>13</v>
+      </c>
+      <c r="H197" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
